--- a/python_for_excel/2-hard-in-excel-easy-in-python/data-visualization/hard-excel-easy-python-data-viz-solutions.xlsx
+++ b/python_for_excel/2-hard-in-excel-easy-in-python/data-visualization/hard-excel-easy-python-data-viz-solutions.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26818"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27123"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\xlgs-2024-analytics-2_0\python_for_excel\2-hard-in-excel-easy-in-python\data-visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1888354D-8ECA-4227-9F0B-14BAA02635EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E208948D-55DB-4DD1-80D4-E088D6ED49BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="2" r:id="rId1"/>
     <sheet name="pairplot" sheetId="3" r:id="rId2"/>
-    <sheet name="kdeplot" sheetId="4" r:id="rId3"/>
-    <sheet name="violinplot" sheetId="5" r:id="rId4"/>
-    <sheet name="stripplot" sheetId="7" r:id="rId5"/>
-    <sheet name="swarmplot" sheetId="6" r:id="rId6"/>
-    <sheet name="small-multiples" sheetId="8" r:id="rId7"/>
+    <sheet name="violinplot" sheetId="5" r:id="rId3"/>
+    <sheet name="stripplot" sheetId="7" r:id="rId4"/>
+    <sheet name="small-multiples" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +54,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="15">
+  <futureMetadata name="XLRICHVALUE" count="3">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -74,91 +72,7 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="10"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="14"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="18"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="22"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="25"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="28"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="31"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="34"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="37"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="40"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="44"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="48"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="52"/>
+          <xlrd:rvb i="7"/>
         </ext>
       </extLst>
     </bk>
@@ -168,7 +82,7 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="15">
+  <valueMetadata count="3">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -177,42 +91,6 @@
     </bk>
     <bk>
       <rc t="2" v="2"/>
-    </bk>
-    <bk>
-      <rc t="2" v="3"/>
-    </bk>
-    <bk>
-      <rc t="2" v="4"/>
-    </bk>
-    <bk>
-      <rc t="2" v="5"/>
-    </bk>
-    <bk>
-      <rc t="2" v="6"/>
-    </bk>
-    <bk>
-      <rc t="2" v="7"/>
-    </bk>
-    <bk>
-      <rc t="2" v="8"/>
-    </bk>
-    <bk>
-      <rc t="2" v="9"/>
-    </bk>
-    <bk>
-      <rc t="2" v="10"/>
-    </bk>
-    <bk>
-      <rc t="2" v="11"/>
-    </bk>
-    <bk>
-      <rc t="2" v="12"/>
-    </bk>
-    <bk>
-      <rc t="2" v="13"/>
-    </bk>
-    <bk>
-      <rc t="2" v="14"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -235,15 +113,6 @@
 sns.pairplot(mpg, vars=['mpg', 'horsepower', 'weight', 'acceleration'], hue='origin', diag_kind='kde')</code>
   </pythonScript>
   <pythonScript>
-    <code># Fill in area under KDE
-sns.kdeplot(mpg['mpg'], shade=True)</code>
-  </pythonScript>
-  <pythonScript>
-    <code># Compare cumulative distributions by origin
-sns.kdeplot(x='mpg', hue='origin', data=mpg, 
-shade=True, vertical=True)</code>
-  </pythonScript>
-  <pythonScript>
     <code>sns.violinplot(x='origin', y='mpg', data=mpg)</code>
   </pythonScript>
   <pythonScript>
@@ -256,13 +125,6 @@
   <pythonScript>
     <code># Add jitter, transparency to datapoints
 sns.stripplot(x='origin', y='mpg', data=mpg, jitter=True, palette='muted', alpha=0.7)</code>
-  </pythonScript>
-  <pythonScript>
-    <code>sns.swarmplot(x='origin', y='mpg', data=mpg)</code>
-  </pythonScript>
-  <pythonScript>
-    <code># Reorder x axis
-sns.swarmplot(x='origin', y='mpg', data=mpg, palette='dark', order=['japan', 'usa', 'europe'])</code>
   </pythonScript>
   <pythonScript>
     <code># Create grid with column by origin 
@@ -523,99 +385,6 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41A61D9-4FA2-6002-AD34-091D795682D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="914400" y="0"/>
-          <a:ext cx="5486400" cy="4114800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D70C2B0-EC69-010E-B4F3-6F645DBBE3B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="914400" y="4533900"/>
-          <a:ext cx="5362575" cy="4114800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -699,7 +468,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -792,100 +561,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37FA1301-46C2-279F-F336-D1A9CD219F31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="914400" y="0"/>
-          <a:ext cx="5362575" cy="4114800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>238413</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184D6463-0954-8BE2-600C-9137E9942ED7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="914400" y="5067300"/>
-          <a:ext cx="4829175" cy="3705513"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1063,9 +739,8 @@
 </file>
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="9">
-  <a r="12" c="9">
-    <v t="s"/>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
+  <a r="12" c="8">
     <v t="s">mpg</v>
     <v t="s">cylinders</v>
     <v t="s">displacement</v>
@@ -1074,7 +749,6 @@
     <v t="s">acceleration</v>
     <v t="s">model_year</v>
     <v t="s">origin</v>
-    <v>0</v>
     <v>18</v>
     <v>8</v>
     <v>307</v>
@@ -1083,7 +757,6 @@
     <v>12</v>
     <v>70</v>
     <v t="s">usa</v>
-    <v>1</v>
     <v>15</v>
     <v>8</v>
     <v>350</v>
@@ -1092,7 +765,6 @@
     <v>11.5</v>
     <v>70</v>
     <v t="s">usa</v>
-    <v>2</v>
     <v>18</v>
     <v>8</v>
     <v>318</v>
@@ -1101,7 +773,6 @@
     <v>11</v>
     <v>70</v>
     <v t="s">usa</v>
-    <v>3</v>
     <v>16</v>
     <v>8</v>
     <v>304</v>
@@ -1110,7 +781,6 @@
     <v>12</v>
     <v>70</v>
     <v t="s">usa</v>
-    <v>4</v>
     <v>17</v>
     <v>8</v>
     <v>302</v>
@@ -1127,8 +797,6 @@
     <v t="s">...</v>
     <v t="s">...</v>
     <v t="s">...</v>
-    <v t="s">...</v>
-    <v>393</v>
     <v>27</v>
     <v>4</v>
     <v>140</v>
@@ -1137,7 +805,6 @@
     <v>15.6</v>
     <v>82</v>
     <v t="s">usa</v>
-    <v>394</v>
     <v>44</v>
     <v>4</v>
     <v>97</v>
@@ -1146,7 +813,6 @@
     <v>24.6</v>
     <v>82</v>
     <v t="s">europe</v>
-    <v>395</v>
     <v>32</v>
     <v>4</v>
     <v>135</v>
@@ -1155,7 +821,6 @@
     <v>11.6</v>
     <v>82</v>
     <v t="s">usa</v>
-    <v>396</v>
     <v>28</v>
     <v>4</v>
     <v>120</v>
@@ -1164,7 +829,6 @@
     <v>18.600000000000001</v>
     <v>82</v>
     <v t="s">usa</v>
-    <v>397</v>
     <v>31</v>
     <v>4</v>
     <v>119</v>
@@ -1178,39 +842,11 @@
     <v>593</v>
     <v>453</v>
   </a>
-  <a r="2">
-    <v>985</v>
-    <v>986</v>
-  </a>
-  <a r="2">
-    <v>1093</v>
-    <v>986</v>
-  </a>
-  <a r="2">
-    <v>576</v>
-    <v>432</v>
-  </a>
-  <a r="2">
-    <v>563</v>
-    <v>432</v>
-  </a>
-  <a r="2">
-    <v>903</v>
-    <v>290</v>
-  </a>
-  <a r="2">
-    <v>890</v>
-    <v>1490</v>
-  </a>
-  <a r="2">
-    <v>965</v>
-    <v>290</v>
-  </a>
 </arrayData>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="53">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -1244,243 +880,17 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=593x453 at 0x7F5B6E000A90&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=593x453 at 0x7F4752394520&gt;</v>
     <v>5</v>
   </rv>
-  <rv s="3">
-    <v>1</v>
-    <v>9</v>
-  </rv>
-  <rv s="0">
-    <v>2</v>
-  </rv>
-  <rv s="4">
-    <v>Image</v>
-    <v>2</v>
-    <v>7</v>
-    <v>8</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=985x986 at 0x7F5B6D88C1F0&gt;</v>
-    <v>9</v>
-  </rv>
-  <rv s="3">
-    <v>2</v>
-    <v>9</v>
-  </rv>
-  <rv s="0">
-    <v>3</v>
-  </rv>
-  <rv s="4">
-    <v>Image</v>
-    <v>2</v>
-    <v>11</v>
-    <v>12</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1093x986 at 0x7F5B6D0D0A60&gt;</v>
-    <v>13</v>
-  </rv>
-  <rv s="3">
-    <v>3</v>
-    <v>9</v>
-  </rv>
-  <rv s="0">
-    <v>4</v>
-  </rv>
-  <rv s="4">
-    <v>Image</v>
-    <v>2</v>
-    <v>15</v>
-    <v>16</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=576x432 at 0x7F5B6D037670&gt;</v>
-    <v>17</v>
-  </rv>
-  <rv s="3">
-    <v>4</v>
-    <v>9</v>
-  </rv>
-  <rv s="0">
-    <v>5</v>
-  </rv>
-  <rv s="4">
-    <v>Image</v>
-    <v>2</v>
-    <v>19</v>
-    <v>20</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F5B6CFFBE80&gt;</v>
-    <v>21</v>
-  </rv>
-  <rv s="3">
-    <v>5</v>
-    <v>9</v>
-  </rv>
-  <rv s="4">
-    <v>Image</v>
-    <v>2</v>
-    <v>23</v>
-    <v>20</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F5B6CF336D0&gt;</v>
-    <v>24</v>
-  </rv>
-  <rv s="3">
-    <v>6</v>
-    <v>9</v>
-  </rv>
-  <rv s="4">
-    <v>Image</v>
-    <v>2</v>
-    <v>26</v>
-    <v>20</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F5B6CECB610&gt;</v>
-    <v>27</v>
-  </rv>
-  <rv s="3">
-    <v>7</v>
-    <v>9</v>
-  </rv>
-  <rv s="4">
-    <v>Image</v>
-    <v>2</v>
-    <v>29</v>
-    <v>20</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F5B6CD909A0&gt;</v>
-    <v>30</v>
-  </rv>
-  <rv s="3">
-    <v>8</v>
-    <v>9</v>
-  </rv>
-  <rv s="4">
-    <v>Image</v>
-    <v>2</v>
-    <v>32</v>
-    <v>20</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F5B6CD26340&gt;</v>
-    <v>33</v>
-  </rv>
-  <rv s="3">
-    <v>9</v>
-    <v>9</v>
-  </rv>
-  <rv s="4">
-    <v>Image</v>
-    <v>2</v>
-    <v>35</v>
-    <v>20</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F5B6CEA6E80&gt;</v>
-    <v>36</v>
-  </rv>
-  <rv s="3">
-    <v>10</v>
-    <v>9</v>
-  </rv>
-  <rv s="4">
-    <v>Image</v>
-    <v>2</v>
-    <v>38</v>
-    <v>20</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F5B6CE26370&gt;</v>
-    <v>39</v>
-  </rv>
-  <rv s="3">
-    <v>11</v>
-    <v>9</v>
-  </rv>
-  <rv s="0">
-    <v>6</v>
-  </rv>
-  <rv s="4">
-    <v>Image</v>
-    <v>2</v>
-    <v>41</v>
-    <v>42</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=903x290 at 0x7F5B6CBC9400&gt;</v>
-    <v>43</v>
-  </rv>
-  <rv s="3">
-    <v>12</v>
-    <v>9</v>
-  </rv>
-  <rv s="0">
-    <v>7</v>
-  </rv>
-  <rv s="4">
-    <v>Image</v>
-    <v>2</v>
-    <v>45</v>
-    <v>46</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=890x1490 at 0x7F5B6CC584F0&gt;</v>
-    <v>47</v>
-  </rv>
-  <rv s="3">
-    <v>13</v>
-    <v>9</v>
-  </rv>
-  <rv s="0">
-    <v>8</v>
-  </rv>
-  <rv s="4">
-    <v>Image</v>
-    <v>2</v>
-    <v>49</v>
-    <v>50</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=965x290 at 0x7F5B6C07B520&gt;</v>
-    <v>51</v>
+  <rv s="5">
+    <v>14</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
   <s t="_array">
     <k n="array" t="a"/>
   </s>
@@ -1504,6 +914,9 @@
     <k n="_Format" t="spb"/>
     <k n="image" t="r"/>
     <k n="size" t="r"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
   </s>
 </rvStructures>
 </file>
@@ -1562,19 +975,6 @@
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
-  <rel r:id="rId3"/>
-  <rel r:id="rId4"/>
-  <rel r:id="rId5"/>
-  <rel r:id="rId6"/>
-  <rel r:id="rId7"/>
-  <rel r:id="rId8"/>
-  <rel r:id="rId9"/>
-  <rel r:id="rId10"/>
-  <rel r:id="rId11"/>
-  <rel r:id="rId12"/>
-  <rel r:id="rId13"/>
-  <rel r:id="rId14"/>
 </richValueRels>
 </file>
 
@@ -1914,7 +1314,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90CDA04-8C43-4254-BCF8-5896515456A3}">
   <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
@@ -12298,19 +11700,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE6285E-1B0F-4BF8-8DE0-15A307997455}">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView topLeftCell="A35" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.65">
       <c r="A1" t="e" cm="1" vm="3">
-        <f t="array" ref="A1">_xlfn._xlws.PY(2,1)</f>
+        <f t="array" aca="1" ref="A1" ca="1">_xlfn._xlws.PY(2,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A40" t="e" cm="1" vm="4">
-        <f t="array" ref="A40">_xlfn._xlws.PY(3,1)</f>
+      <c r="A40" t="e" cm="1" vm="3">
+        <f t="array" aca="1" ref="A40" ca="1">_xlfn._xlws.PY(3,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12321,32 +11723,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B80200B-F24A-4CA9-9F8D-25E98CD4F4EC}">
-  <dimension ref="A1:A18"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A1" t="e" cm="1" vm="5">
-        <f t="array" ref="A1">_xlfn._xlws.PY(4,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A18" t="e" cm="1" vm="6">
-        <f t="array" ref="A18">_xlfn._xlws.PY(5,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2A6895-B015-47E1-819A-0E853EA2DDA8}">
   <dimension ref="A1:A19"/>
   <sheetViews>
@@ -12355,14 +11731,40 @@
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A1" t="e" cm="1" vm="7">
-        <f t="array" ref="A1">_xlfn._xlws.PY(6,1)</f>
+      <c r="A1" t="e" cm="1" vm="3">
+        <f t="array" aca="1" ref="A1" ca="1">_xlfn._xlws.PY(4,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A19" t="e" cm="1" vm="8">
-        <f t="array" ref="A19">_xlfn._xlws.PY(7,1)</f>
+      <c r="A19" t="e" cm="1" vm="3">
+        <f t="array" aca="1" ref="A19" ca="1">_xlfn._xlws.PY(5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DDAE02-3DF9-43D4-83AA-007C1A765485}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A1" t="e" cm="1" vm="3">
+        <f t="array" aca="1" ref="A1" ca="1">_xlfn._xlws.PY(6,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A18" t="e" cm="1" vm="3">
+        <f t="array" aca="1" ref="A18" ca="1">_xlfn._xlws.PY(7,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12373,58 +11775,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DDAE02-3DF9-43D4-83AA-007C1A765485}">
-  <dimension ref="A1:A18"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A1" t="e" cm="1" vm="9">
-        <f t="array" ref="A1">_xlfn._xlws.PY(8,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A18" t="e" cm="1" vm="10">
-        <f t="array" ref="A18">_xlfn._xlws.PY(9,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9EF26C-9A6F-4C1E-AE9A-21D80AEBA6B1}">
-  <dimension ref="A1:A20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A1" t="e" cm="1" vm="11">
-        <f t="array" ref="A1">_xlfn._xlws.PY(10,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A20" t="e" cm="1" vm="12">
-        <f t="array" ref="A20">_xlfn._xlws.PY(11,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1BDB8A-7803-478E-A869-FFD915C6709F}">
   <dimension ref="A1:A67"/>
   <sheetViews>
@@ -12436,20 +11786,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A1" t="e" cm="1" vm="13">
-        <f t="array" ref="A1">_xlfn._xlws.PY(12,1)</f>
+      <c r="A1" t="e" cm="1" vm="3">
+        <f t="array" aca="1" ref="A1" ca="1">_xlfn._xlws.PY(8,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A11" t="e" cm="1" vm="14">
-        <f t="array" ref="A11">_xlfn._xlws.PY(13,1)</f>
+      <c r="A11" t="e" cm="1" vm="3">
+        <f t="array" aca="1" ref="A11" ca="1">_xlfn._xlws.PY(9,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A67" t="e" cm="1" vm="15">
-        <f t="array" ref="A67">_xlfn._xlws.PY(14,1)</f>
+      <c r="A67" t="e" cm="1" vm="3">
+        <f t="array" aca="1" ref="A67" ca="1">_xlfn._xlws.PY(10,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>

--- a/python_for_excel/2-hard-in-excel-easy-in-python/data-visualization/hard-excel-easy-python-data-viz-solutions.xlsx
+++ b/python_for_excel/2-hard-in-excel-easy-in-python/data-visualization/hard-excel-easy-python-data-viz-solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\xlgs-2024-analytics-2_0\python_for_excel\2-hard-in-excel-easy-in-python\data-visualization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\xlgs-2024-analytics-2_0\python_for_excel\2-hard-in-excel-easy-in-python\data-visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E208948D-55DB-4DD1-80D4-E088D6ED49BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D55E914-8664-4DF4-8139-7695B04F1A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="4" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="3">
+  <futureMetadata name="XLRICHVALUE" count="11">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -72,7 +72,63 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="7"/>
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="27"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="31"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="35"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="39"/>
         </ext>
       </extLst>
     </bk>
@@ -82,7 +138,7 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="11">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -92,8 +148,98 @@
     <bk>
       <rc t="2" v="2"/>
     </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+    <bk>
+      <rc t="2" v="10"/>
+    </bk>
   </valueMetadata>
 </metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>mpg = xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sns.countplot(y='origin', data=mpg, color='blue')
+plt.title('Vehicle count by origin')</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sns.pairplot(mpg, vars=['mpg', 'horsepower', 'weight', 'acceleration'])</code>
+    </pythonScript>
+    <pythonScript>
+      <code># Break plots down by origin, change diagonals to KDE
+sns.pairplot(mpg, vars=['mpg', 'horsepower', 'weight', 'acceleration'], hue='origin', diag_kind='kde')</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sns.violinplot(x='origin', y='mpg', data=mpg)</code>
+    </pythonScript>
+    <pythonScript>
+      <code># Change colors, quartile marks
+sns.violinplot(x='origin', y='mpg', data=mpg, palette='pastel', inner='quartile')</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sns.stripplot(x='origin', y='mpg', data=mpg)</code>
+    </pythonScript>
+    <pythonScript>
+      <code># Add jitter, transparency to datapoints
+sns.stripplot(x='origin', y='mpg', data=mpg, jitter=True, palette='muted', alpha=0.7)</code>
+    </pythonScript>
+    <pythonScript>
+      <code># Create grid with column by origin 
+g = sns.FacetGrid(mpg, col='origin')
+# Map mpg by model_year scatterplot to each plot
+g.map(plt.scatter, 'model_year', 'mpg')</code>
+    </pythonScript>
+    <pythonScript>
+      <code># Set column to origin, row to cylinders
+g = sns.FacetGrid(mpg, col='origin', row='cylinders')
+g.map(plt.scatter, 'weight', 'mpg')</code>
+    </pythonScript>
+    <pythonScript>
+      <code># Color points by cylinders
+g = sns.FacetGrid(mpg, col='origin', hue='cylinders', palette='cubehelix')
+g.map(plt.scatter, 'mpg', 'weight').add_legend()</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
 </file>
 
 <file path=xl/pythonScripts.xml><?xml version="1.0" encoding="utf-8"?>
@@ -739,7 +885,7 @@
 </file>
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="8">
   <a r="12" c="8">
     <v t="s">mpg</v>
     <v t="s">cylinders</v>
@@ -842,11 +988,35 @@
     <v>593</v>
     <v>453</v>
   </a>
+  <a r="2">
+    <v>985</v>
+    <v>986</v>
+  </a>
+  <a r="2">
+    <v>1093</v>
+    <v>986</v>
+  </a>
+  <a r="2">
+    <v>563</v>
+    <v>432</v>
+  </a>
+  <a r="2">
+    <v>903</v>
+    <v>290</v>
+  </a>
+  <a r="2">
+    <v>890</v>
+    <v>1490</v>
+  </a>
+  <a r="2">
+    <v>965</v>
+    <v>290</v>
+  </a>
 </arrayData>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="40">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -880,17 +1050,176 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=593x453 at 0x7F4752394520&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=593x453 at 0x7F839B98AC80&gt;</v>
     <v>5</v>
   </rv>
-  <rv s="5">
-    <v>14</v>
+  <rv s="3">
+    <v>1</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>2</v>
+    <v>7</v>
+    <v>8</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=985x986 at 0x7F8392C52CE0&gt;</v>
+    <v>9</v>
+  </rv>
+  <rv s="3">
+    <v>2</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>2</v>
+    <v>11</v>
+    <v>12</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1093x986 at 0x7F839044EC50&gt;</v>
+    <v>13</v>
+  </rv>
+  <rv s="3">
+    <v>3</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>2</v>
+    <v>15</v>
+    <v>16</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F839050F370&gt;</v>
+    <v>17</v>
+  </rv>
+  <rv s="3">
+    <v>4</v>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>2</v>
+    <v>19</v>
+    <v>16</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F83903878E0&gt;</v>
+    <v>20</v>
+  </rv>
+  <rv s="3">
+    <v>5</v>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>2</v>
+    <v>22</v>
+    <v>16</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F83903FDB40&gt;</v>
+    <v>23</v>
+  </rv>
+  <rv s="3">
+    <v>6</v>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>2</v>
+    <v>25</v>
+    <v>16</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F8390B30BE0&gt;</v>
+    <v>26</v>
+  </rv>
+  <rv s="3">
+    <v>7</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>2</v>
+    <v>28</v>
+    <v>29</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=903x290 at 0x7F83901938B0&gt;</v>
+    <v>30</v>
+  </rv>
+  <rv s="3">
+    <v>8</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>2</v>
+    <v>32</v>
+    <v>33</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=890x1490 at 0x7F838BC4C5B0&gt;</v>
+    <v>34</v>
+  </rv>
+  <rv s="3">
+    <v>9</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>2</v>
+    <v>36</v>
+    <v>37</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=965x290 at 0x7F838B253F40&gt;</v>
+    <v>38</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <s t="_array">
     <k n="array" t="a"/>
   </s>
@@ -914,9 +1243,6 @@
     <k n="_Format" t="spb"/>
     <k n="image" t="r"/>
     <k n="size" t="r"/>
-  </s>
-  <s t="_error">
-    <k n="errorType" t="i"/>
   </s>
 </rvStructures>
 </file>
@@ -975,6 +1301,15 @@
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+  <rel r:id="rId10"/>
 </richValueRels>
 </file>
 
@@ -1314,7 +1649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90CDA04-8C43-4254-BCF8-5896515456A3}">
   <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -11706,13 +12041,13 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.65">
       <c r="A1" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A1" ca="1">_xlfn._xlws.PY(2,1)</f>
+        <f t="array" ref="A1">_xlfn._xlws.PY(2,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A40" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A40" ca="1">_xlfn._xlws.PY(3,1)</f>
+      <c r="A40" t="e" cm="1" vm="4">
+        <f t="array" ref="A40">_xlfn._xlws.PY(3,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11731,14 +12066,14 @@
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A1" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A1" ca="1">_xlfn._xlws.PY(4,1)</f>
+      <c r="A1" t="e" cm="1" vm="5">
+        <f t="array" ref="A1">_xlfn._xlws.PY(4,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A19" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A19" ca="1">_xlfn._xlws.PY(5,1)</f>
+      <c r="A19" t="e" cm="1" vm="6">
+        <f t="array" ref="A19">_xlfn._xlws.PY(5,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11757,14 +12092,14 @@
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A1" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A1" ca="1">_xlfn._xlws.PY(6,1)</f>
+      <c r="A1" t="e" cm="1" vm="7">
+        <f t="array" ref="A1">_xlfn._xlws.PY(6,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A18" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A18" ca="1">_xlfn._xlws.PY(7,1)</f>
+      <c r="A18" t="e" cm="1" vm="8">
+        <f t="array" ref="A18">_xlfn._xlws.PY(7,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11778,7 +12113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1BDB8A-7803-478E-A869-FFD915C6709F}">
   <dimension ref="A1:A67"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
@@ -11786,20 +12121,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A1" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A1" ca="1">_xlfn._xlws.PY(8,1)</f>
+      <c r="A1" t="e" cm="1" vm="9">
+        <f t="array" ref="A1">_xlfn._xlws.PY(8,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A11" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A11" ca="1">_xlfn._xlws.PY(9,1)</f>
+      <c r="A11" t="e" cm="1" vm="10">
+        <f t="array" ref="A11">_xlfn._xlws.PY(9,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A67" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A67" ca="1">_xlfn._xlws.PY(10,1)</f>
+      <c r="A67" t="e" cm="1" vm="11">
+        <f t="array" ref="A67">_xlfn._xlws.PY(10,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
